--- a/pred_ohlcv/54_21/2019-10-27 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 WET ohlcv.xlsx
@@ -1770,7 +1770,7 @@
         <v>-40607842.24797422</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-40580616.85787421</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-40551353.39907421</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-39719092.03107421</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-39833805.62847421</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-39838805.62847421</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-39838705.62847421</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-39846312.7088742</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-39846312.7088742</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-39953936.1987742</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-40237415.87277421</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-53293727.53587421</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-53362204.08617421</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-53358116.85467421</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-53358116.85467421</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-53358106.85467421</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-52891293.98904778</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-52897519.67374778</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-52912669.82174778</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-52912649.82174778</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-52936110.36914778</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-52936100.36914778</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-52936124.36914778</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-53079312.95184778</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-53079302.95184778</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-53049031.43754777</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-53049011.43754777</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-53049011.43754777</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-53302187.05984777</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-53278822.57394777</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-53278868.57394777</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 WET ohlcv.xlsx
@@ -1770,7 +1770,7 @@
         <v>-40607842.24797422</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-40580616.85787421</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-40551353.39907421</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-39719092.03107421</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-39833805.62847421</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-39838805.62847421</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-39838705.62847421</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-39846312.7088742</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-39846312.7088742</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-39953936.1987742</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-40237415.87277421</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-40343199.0852742</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-40358784.3879742</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-40358784.3879742</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-40374505.7546742</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-40407970.46747421</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-40418324.25197421</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-77158625.96797422</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-59381950.96797422</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-53293727.53587421</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-53362204.08617421</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-53358116.85467421</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-53358116.85467421</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-53358106.85467421</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-53046245.18255103</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-52915463.20734778</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-52915496.73174778</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-52915530.02334778</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-52891293.98904778</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-52902293.98904778</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-52902293.98904778</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-52908066.89004778</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-52897519.67374778</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-52912669.82174778</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-52912649.82174778</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-52936110.36914778</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-52936100.36914778</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-52936124.36914778</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-52942190.01374777</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-53079322.95184778</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-53079312.95184778</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-53079302.95184778</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-53049031.43754777</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-53049011.43754777</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-53302187.05984777</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-53278822.57394777</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
